--- a/R1_by_R2 (1.1 by 1).xlsx
+++ b/R1_by_R2 (1.1 by 1).xlsx
@@ -151,69 +151,6 @@
       <c r="AC1" t="n">
         <v>0.07371733045123109</v>
       </c>
-      <c r="AD1" t="n">
-        <v>4.024489381019305</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3.931385597658835</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>3.7796264145527383</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>3.590953907110483</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>3.3808252260919534</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>3.1600011576292033</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>2.935938863225158</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>2.713829085164712</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>2.4973090329269527</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>2.2889306783430405</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>2.09046196964371</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>1.9030813220821554</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>1.7275075510880982</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>1.5640925023512058</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>1.4128927152381883</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>1.2737290633129719</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>1.1462386856430744</v>
-      </c>
-      <c r="AU1" t="n">
-        <v>1.0299208969764422</v>
-      </c>
-      <c r="AV1" t="n">
-        <v>0.924177488507666</v>
-      </c>
-      <c r="AW1" t="n">
-        <v>0.8283473827570822</v>
-      </c>
-      <c r="AX1" t="n">
-        <v>0.741735603175014</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -302,69 +239,6 @@
       </c>
       <c r="AC2" t="n">
         <v>-0.07359413423171217</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-3.7871383703978028</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-3.3830299485404702</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-3.0362848928924215</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-2.7410694841889627</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-2.4893791318051828</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>-2.273106823787777</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-2.0850033370569245</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-1.919021324172834</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>-1.7703473693088927</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-1.6352901594121643</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1.511112358973357</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-1.3958501436684045</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1.288141888139434</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-1.187076117822892</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1.0920629001324422</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1.0027295342059397</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-0.9188394025192981</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>-0.8402316256736314</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>-0.7667784856060147</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-0.6983573305461056</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-0.6348337467652799</v>
       </c>
     </row>
   </sheetData>

--- a/R1_by_R2 (1.1 by 1).xlsx
+++ b/R1_by_R2 (1.1 by 1).xlsx
@@ -65,180 +65,294 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7136534391695805</v>
+        <v>0.7156984032312599</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7124658112330318</v>
+        <v>0.7156982652658807</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7105963937076989</v>
+        <v>0.7156980466056638</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7076653960461444</v>
+        <v>0.71569770005301</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7030983277687788</v>
+        <v>0.715697150805162</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6960500445309596</v>
+        <v>0.7156962803087342</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6853321372375357</v>
+        <v>0.7156949006717732</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6693940956901033</v>
+        <v>0.715692714111881</v>
       </c>
       <c r="I1" t="n">
-        <v>0.646460887404744</v>
+        <v>0.7156892486915364</v>
       </c>
       <c r="J1" t="n">
-        <v>0.614968823687523</v>
+        <v>0.7156837564797972</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5743609228188664</v>
+        <v>0.7156750521855243</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5259679410636117</v>
+        <v>0.7156612574988178</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4732510139736779</v>
+        <v>0.715639396126873</v>
       </c>
       <c r="N1" t="n">
-        <v>0.420785493335932</v>
+        <v>0.7156047525399798</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37242210846052604</v>
+        <v>0.7155498570856389</v>
       </c>
       <c r="P1" t="n">
-        <v>0.32998293392636263</v>
+        <v>0.7154628810994641</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.29332885313867924</v>
+        <v>0.7153251023480393</v>
       </c>
       <c r="R1" t="n">
-        <v>0.26136987030541325</v>
+        <v>0.7151069106311148</v>
       </c>
       <c r="S1" t="n">
-        <v>0.2330550372886233</v>
+        <v>0.7147615336521546</v>
       </c>
       <c r="T1" t="n">
-        <v>0.20776306004591516</v>
+        <v>0.7142152344220694</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517224102782012</v>
+        <v>0.7133521265636418</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503150999597452</v>
+        <v>0.7119909775013011</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14708431557759807</v>
+        <v>0.7098505756054381</v>
       </c>
       <c r="X1" t="n">
-        <v>0.1310894152793417</v>
+        <v>0.7064999939565552</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.11683372904457152</v>
+        <v>0.7012919418472509</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.10412827983589025</v>
+        <v>0.6932848829225122</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.0928045069792951</v>
+        <v>0.681179185074343</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.08271216032200454</v>
+        <v>0.6633317916054311</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.07371733045123109</v>
+        <v>0.6379683331913528</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.6037299760354345</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.5605454500585146</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.5104103342908266</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.45728476444537564</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.4057236345790737</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.35904826902193504</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.3184249305527463</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.28330638119446805</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.25253254328634545</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.22517069540970833</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.2007159863649416</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.1788865290841299</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.15943042703909585</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.1420927618214486</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.12664061206405494</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.11286870218439475</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.10059443703809279</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.0896549583437325</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.0799051166033745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.149026950402251</v>
+        <v>-290.9103332742075</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.5161016641188225</v>
+        <v>-231.07845119936684</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.017048629746009</v>
+        <v>-183.55233928257752</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6251759046946817</v>
+        <v>-145.80105875927708</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3193910116655276</v>
+        <v>-115.81421628056044</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0829835330152338</v>
+        <v>-91.99490313626615</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9025733687035224</v>
+        <v>-73.07465404270759</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7671457312133834</v>
+        <v>-58.04589674024481</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6671354913956733</v>
+        <v>-46.10829509515108</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.593636913092672</v>
+        <v>-36.62612827970361</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.538007343566977</v>
+        <v>-29.094436315255468</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4922421204648684</v>
+        <v>-23.11212910268233</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.45015571702881413</v>
+        <v>-18.360626893381728</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4085712727268455</v>
+        <v>-14.586894718776755</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.36734500309248136</v>
+        <v>-11.589967281414111</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3280051298714193</v>
+        <v>-9.210246672296568</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2920607841051029</v>
+        <v>-7.321002905921548</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2600951089234788</v>
+        <v>-5.821624500673005</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2318493429058021</v>
+        <v>-4.632259386566183</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20676763485195468</v>
+        <v>-3.689560183885909</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18439226331403594</v>
+        <v>-2.9433061673010052</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.16441661875877234</v>
+        <v>-2.3537198839807254</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1465953261161303</v>
+        <v>-1.8893314682231515</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.13070056983090642</v>
+        <v>-1.5252694610957538</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.11652472597444034</v>
+        <v>-1.2418741265888464</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.10388272596183035</v>
+        <v>-1.0235389175032183</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.09260938098894926</v>
+        <v>-0.8576920592149493</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.08255711298101005</v>
+        <v>-0.7338468856448213</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.07359413423171217</v>
+        <v>-0.6427081341525646</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.5754623012868939</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.5235764172687671</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.47944367179784186</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.43768938244307565</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.39611643261681806</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.3552675426927539</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.31682203689849686</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.28205655268585145</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.25125827054751576</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.22401962782604554</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1997893236965842</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.17816134457656424</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.15885656805203316</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.14163618487459176</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.1262776595175336</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.11258028045047803</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.10036523952555124</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.08947283233724675</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.07976040073873836</v>
       </c>
     </row>
   </sheetData>
@@ -256,180 +370,294 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7130300291828601</v>
+        <v>0.7149997734797762</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7118812553607389</v>
+        <v>0.7149996409896703</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7100670165038346</v>
+        <v>0.7149994310070501</v>
       </c>
       <c r="D1" t="n">
-        <v>0.707210453218513</v>
+        <v>0.7149990982071424</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7027372191468044</v>
+        <v>0.7149985707551294</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6957978162562677</v>
+        <v>0.7149977348007663</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6851949632646863</v>
+        <v>0.714996409904251</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6693669335664758</v>
+        <v>0.7149943100894663</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6465276086593614</v>
+        <v>0.7149909821190817</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6151028922019318</v>
+        <v>0.7149857076710814</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5745259521811249</v>
+        <v>0.7149773483088582</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5261218861879235</v>
+        <v>0.7149640998002748</v>
       </c>
       <c r="M1" t="n">
-        <v>0.47335852726745986</v>
+        <v>0.7149431028028522</v>
       </c>
       <c r="N1" t="n">
-        <v>0.42083384778954436</v>
+        <v>0.7149098260029059</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37242590899561095</v>
+        <v>0.7148570888733052</v>
       </c>
       <c r="P1" t="n">
-        <v>0.32997004120006623</v>
+        <v>0.7147735139363169</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.29331981512570865</v>
+        <v>0.7146410766588885</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2613691859650856</v>
+        <v>0.7144312301878927</v>
       </c>
       <c r="S1" t="n">
-        <v>0.23305778850843972</v>
+        <v>0.7140987856245459</v>
       </c>
       <c r="T1" t="n">
-        <v>0.20776506434085126</v>
+        <v>0.7135722770630556</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1851730941503809</v>
+        <v>0.7127388816326176</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503200956388347</v>
+        <v>0.7114210902747998</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14708471717973</v>
+        <v>0.7093414205767464</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13108970591418512</v>
+        <v>0.7060712564416756</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.11683393258319866</v>
+        <v>0.7009622348307246</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.10412842423836911</v>
+        <v>0.6930670023357977</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.09280460933133161</v>
+        <v>0.6810760539391264</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.08271223284523647</v>
+        <v>0.6633349588352959</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.07371738183600769</v>
+        <v>0.6380585049141562</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.6038775503402823</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.5607115802995979</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.5105533109900129</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.4573745463905445</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.4057560784007242</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.35904412055588975</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.3184117597841829</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.28330002616999606</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.2525335266615984</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.22517347059136378</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.20071757059128562</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.17888720922388504</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.1594308944529313</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.14209313064426876</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.12664087284354855</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.11286888573191886</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.1005945673012699</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.08965505064783537</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.07990518200748525</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.1487764528634807</v>
+        <v>-290.9103303575477</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.5158003960326965</v>
+        <v>-231.07844752753095</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.0166945025377827</v>
+        <v>-183.55233466005262</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6247726774976645</v>
+        <v>-145.80105293994797</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3189507104025397</v>
+        <v>-115.81420895462861</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0825270694043363</v>
+        <v>-91.99489391380256</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9021282054987108</v>
+        <v>-73.07464243298845</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7667414182093506</v>
+        <v>-58.04588212582024</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6667993816245241</v>
+        <v>-46.10827669936537</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.593390826823344</v>
+        <v>-36.6261051261363</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5378629557603708</v>
+        <v>-29.094407177319166</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4921936563459932</v>
+        <v>-23.112092441479323</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4501752980342918</v>
+        <v>-18.360580782069032</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4086167332733388</v>
+        <v>-14.586836752489752</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3673802161254223</v>
+        <v>-11.589894473993233</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3280167094429559</v>
+        <v>-9.210155346058988</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.29205637680765695</v>
+        <v>-7.320888591071698</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2600878926313218</v>
+        <v>-5.821481880887201</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.23184562368947179</v>
+        <v>-4.632082362737379</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20676656286208886</v>
+        <v>-3.6893421839222937</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18439171686053193</v>
+        <v>-2.9430408996249753</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1644160595478035</v>
+        <v>-2.3534027711837084</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.14659489858266825</v>
+        <v>-1.888961883196829</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1307002790296997</v>
+        <v>-1.5248534364849315</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.11652452045867727</v>
+        <v>-1.2414264129473522</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.10388258011951843</v>
+        <v>-1.023082770739018</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.09260927777916482</v>
+        <v>-0.8572560734987525</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.08255703991146862</v>
+        <v>-0.7334603439381767</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.07359408250226841</v>
+        <v>-0.6423970770245626</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.5752461265539652</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.5234623931055555</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.47941948813851487</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4377213228592081</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.3961617668353408</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.3552959018584529</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.316827426567453</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2820500956167119</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.25125186136643196</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2240169615027742</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.19978856650054544</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1781607903938929</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1588560357668599</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.14163580433639691</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.12627739831720253</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.11258009488314617</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.10036510805449149</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.08947273928237386</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.07976033485887848</v>
       </c>
     </row>
   </sheetData>
@@ -447,180 +675,294 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7136810635406816</v>
+        <v>0.7157330965328237</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7124900314776867</v>
+        <v>0.715732958029945</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7106160690485184</v>
+        <v>0.715732738517868</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7076794771993714</v>
+        <v>0.7157323906151554</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7031062276202887</v>
+        <v>0.7157318392277299</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6960519644769962</v>
+        <v>0.7157309653406055</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6853290762818278</v>
+        <v>0.7157295803305191</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6693874962127523</v>
+        <v>0.715727385256722</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6464522583931162</v>
+        <v>0.7157239063475812</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6149596886222163</v>
+        <v>0.7157183927696744</v>
       </c>
       <c r="K1" t="n">
-        <v>0.574352967991815</v>
+        <v>0.7157096546427567</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5259628197752872</v>
+        <v>0.7156958064112863</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4732495037778174</v>
+        <v>0.7156738603679544</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4207867086055089</v>
+        <v>0.7156390830647158</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37242399305346313</v>
+        <v>0.7155839768794108</v>
       </c>
       <c r="P1" t="n">
-        <v>0.32998389741017325</v>
+        <v>0.7154966698800058</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.29332877359577203</v>
+        <v>0.7153583738607496</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2613694974335046</v>
+        <v>0.7151393803539614</v>
       </c>
       <c r="S1" t="n">
-        <v>0.23305487884959847</v>
+        <v>0.7147927761971207</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2077630767686009</v>
+        <v>0.7142446351092672</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517226159744843</v>
+        <v>0.7133788440670681</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503150457094007</v>
+        <v>0.7120139563957806</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1470843106653504</v>
+        <v>0.7098686702519859</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13108941380962974</v>
+        <v>0.7065122516185302</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.11683372799812818</v>
+        <v>0.7012979872427839</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.10412827913948698</v>
+        <v>0.6932851751032855</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.09280450654728101</v>
+        <v>0.6811749033109074</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.08271216004853718</v>
+        <v>0.6633244267990692</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.07371733027864086</v>
+        <v>0.6379593874012348</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.6037210096514649</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.5605381903778147</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.5104062820303331</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.4572842424412183</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.40572527949386067</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.3590499822071784</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.31842553111248195</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.28330612850237485</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.2525322100692756</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.22517060952512513</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>0.20071601677539225</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0.17888653940423804</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>0.15943041987068485</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.1420927584230764</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.1266406108300383</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.11286870123054873</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.10059443643752111</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.08965495796690996</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.07990511636517254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.149043999659206</v>
+        <v>-290.9103334850913</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.5161215083818727</v>
+        <v>-231.0784514648511</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.0170708531937476</v>
+        <v>-183.55233961679707</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6251995171186735</v>
+        <v>-145.80105918002394</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3194144697854946</v>
+        <v>-115.8142168102281</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0830050581160073</v>
+        <v>-91.99490380303583</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9025914502033107</v>
+        <v>-73.07465488203628</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7671594574905245</v>
+        <v>-58.045897796728305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6671444901260597</v>
+        <v>-46.10829642484844</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5936411486811126</v>
+        <v>-36.62612995302224</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.538007212620059</v>
+        <v>-29.09443842050079</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.49223888213487377</v>
+        <v>-23.112131750362973</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4501515975007735</v>
+        <v>-18.360630221305556</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.40856852356524187</v>
+        <v>-14.586898897827627</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.36734445805611066</v>
+        <v>-11.589972521573713</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3280058998574903</v>
+        <v>-9.210253227803861</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.29206152196700647</v>
+        <v>-7.321011077163299</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.260095282103624</v>
+        <v>-5.8216346280622995</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2318492277273595</v>
+        <v>-4.6322718278945105</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.2067675637400616</v>
+        <v>-3.689575261709158</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1843922682908156</v>
+        <v>-2.9433240696935528</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1644166273894397</v>
+        <v>-2.3537405094219706</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.14659532559287974</v>
+        <v>-1.8893542401418482</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.130700569433377</v>
+        <v>-1.5252932088340654</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.11652472605339656</v>
+        <v>-1.2418971893793036</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.10388272596329365</v>
+        <v>-1.0235595441999832</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.09260938099096715</v>
+        <v>-0.857708901488018</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.08255711298236199</v>
+        <v>-0.7338592151314993</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.07359413423244908</v>
+        <v>-0.6427156945084218</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.5754651557486797</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.5235751725754864</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.47943990604228687</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4376854775956799</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.39611434636889564</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.3552675391077681</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.3168229166064936</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.28205712838785996</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2512583111268814</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.22401950454194675</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.19978928260688136</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1781613561972245</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.15885657290124458</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.14163618386781995</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.12627765941005908</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.1125802805019884</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.10036523952431885</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.08947283233947409</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.07976040073982935</v>
       </c>
     </row>
   </sheetData>
